--- a/database/industries/siman/sekord/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekord/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekord\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053A5B68-7805-4785-8E69-52C0669CEE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C52B5A-F3BE-4804-9C5A-F5D27930486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل اول منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-16 (11)</t>
+  </si>
+  <si>
+    <t>1399-10-29</t>
+  </si>
+  <si>
+    <t>1400-04-07 (3)</t>
+  </si>
+  <si>
+    <t>1400-06-13 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-01 (9)</t>
   </si>
   <si>
     <t>1400-10-29</t>
@@ -698,20 +728,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +752,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +768,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +784,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +798,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +814,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +830,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +844,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +870,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +930,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +946,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>68732</v>
+      </c>
+      <c r="E12" s="15">
+        <v>171974</v>
+      </c>
+      <c r="F12" s="15">
+        <v>232282</v>
+      </c>
+      <c r="G12" s="15">
+        <v>90658</v>
+      </c>
+      <c r="H12" s="15">
+        <v>107025</v>
+      </c>
+      <c r="I12" s="15">
         <v>247715</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>318198</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>1062097</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>599334</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>256245</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>3056</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11">
         <v>104</v>
       </c>
       <c r="F13" s="11">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="G13" s="11">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="H13" s="11">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="11">
+        <v>3056</v>
+      </c>
+      <c r="J13" s="11">
+        <v>104</v>
+      </c>
+      <c r="K13" s="11">
+        <v>104</v>
+      </c>
+      <c r="L13" s="11">
+        <v>104</v>
+      </c>
+      <c r="M13" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>188904</v>
+      </c>
+      <c r="E14" s="15">
+        <v>193973</v>
+      </c>
+      <c r="F14" s="15">
+        <v>155055</v>
+      </c>
+      <c r="G14" s="15">
+        <v>142176</v>
+      </c>
+      <c r="H14" s="15">
+        <v>236957</v>
+      </c>
+      <c r="I14" s="15">
         <v>269384</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>128772</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>169038</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>97021</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>193776</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>732965</v>
+      </c>
+      <c r="E15" s="11">
+        <v>879427</v>
+      </c>
+      <c r="F15" s="11">
+        <v>892610</v>
+      </c>
+      <c r="G15" s="11">
+        <v>992641</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1089787</v>
+      </c>
+      <c r="I15" s="11">
         <v>1433925</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>1713739</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>1851596</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>1961718</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>2377493</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>108628</v>
+      </c>
+      <c r="E16" s="15">
+        <v>55403</v>
+      </c>
+      <c r="F16" s="15">
+        <v>60529</v>
+      </c>
+      <c r="G16" s="15">
+        <v>298417</v>
+      </c>
+      <c r="H16" s="15">
+        <v>235107</v>
+      </c>
+      <c r="I16" s="15">
         <v>420022</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>415813</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>608879</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>187013</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>800151</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1152,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>1099333</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1300881</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1340876</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1524147</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1668980</v>
+      </c>
+      <c r="I18" s="17">
         <v>2374102</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>2576626</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>3691714</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>2845190</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>3627769</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,31 +1224,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>74449</v>
+      </c>
+      <c r="E20" s="15">
+        <v>74449</v>
+      </c>
+      <c r="F20" s="15">
+        <v>74449</v>
+      </c>
+      <c r="G20" s="15">
+        <v>74449</v>
+      </c>
+      <c r="H20" s="15">
+        <v>74449</v>
+      </c>
+      <c r="I20" s="15">
         <v>74604</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>77556</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>77556</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>77555</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>77658</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1296,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>1793076</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1772659</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1776442</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1760625</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1846344</v>
+      </c>
+      <c r="I22" s="15">
         <v>1742158</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>1749726</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>1784844</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>2332212</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>2004285</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>81657</v>
+      </c>
+      <c r="E23" s="11">
+        <v>81657</v>
+      </c>
+      <c r="F23" s="11">
+        <v>81657</v>
+      </c>
+      <c r="G23" s="11">
+        <v>86605</v>
+      </c>
+      <c r="H23" s="11">
+        <v>86605</v>
+      </c>
+      <c r="I23" s="11">
         <v>87265</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>88520</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>96700</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>88583</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>77600</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>175891</v>
+      </c>
+      <c r="E25" s="11">
+        <v>70888</v>
+      </c>
+      <c r="F25" s="11">
+        <v>37367</v>
+      </c>
+      <c r="G25" s="11">
+        <v>36448</v>
+      </c>
+      <c r="H25" s="11">
+        <v>133712</v>
+      </c>
+      <c r="I25" s="11">
         <v>91216</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>55401</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>88156</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>68219</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>67624</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>2125073</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1999653</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1969915</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1958127</v>
+      </c>
+      <c r="H26" s="17">
+        <v>2141110</v>
+      </c>
+      <c r="I26" s="17">
         <v>1995243</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>1971203</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>2047256</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>2566569</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>2227167</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>3224406</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3300534</v>
+      </c>
+      <c r="F27" s="19">
+        <v>3310791</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3482274</v>
+      </c>
+      <c r="H27" s="19">
+        <v>3810090</v>
+      </c>
+      <c r="I27" s="19">
         <v>4369345</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>4547829</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>5738970</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>5411759</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>5854936</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1538,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>599871</v>
+      </c>
+      <c r="E29" s="15">
+        <v>636167</v>
+      </c>
+      <c r="F29" s="15">
+        <v>534705</v>
+      </c>
+      <c r="G29" s="15">
+        <v>667167</v>
+      </c>
+      <c r="H29" s="15">
+        <v>777400</v>
+      </c>
+      <c r="I29" s="15">
         <v>911200</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>783481</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>924590</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>883031</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>1142943</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>76797</v>
+      </c>
+      <c r="E31" s="15">
+        <v>134406</v>
+      </c>
+      <c r="F31" s="15">
+        <v>228755</v>
+      </c>
+      <c r="G31" s="15">
+        <v>261201</v>
+      </c>
+      <c r="H31" s="15">
+        <v>121206</v>
+      </c>
+      <c r="I31" s="15">
         <v>228489</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>442349</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>928996</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>609295</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>435231</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
         <v>50050</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>65803</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>127549</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>166381</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>231071</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>3515</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3515</v>
+      </c>
+      <c r="F33" s="15">
+        <v>3515</v>
+      </c>
+      <c r="G33" s="15">
+        <v>3515</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3515</v>
+      </c>
+      <c r="I33" s="15">
         <v>157233</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>141823</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>71875</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>3776</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>795777</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>386325</v>
+      </c>
+      <c r="E34" s="11">
+        <v>292993</v>
+      </c>
+      <c r="F34" s="11">
+        <v>500507</v>
+      </c>
+      <c r="G34" s="11">
+        <v>308162</v>
+      </c>
+      <c r="H34" s="11">
+        <v>177635</v>
+      </c>
+      <c r="I34" s="11">
         <v>166205</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>66404</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>219451</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>447095</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>477589</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1780,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1816,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>1066508</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1067081</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1267482</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1240045</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1079756</v>
+      </c>
+      <c r="I37" s="17">
         <v>1513177</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>1499860</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>2272461</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>2109578</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>3082611</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,115 +1888,205 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>394879</v>
+      </c>
+      <c r="E40" s="11">
+        <v>456355</v>
+      </c>
+      <c r="F40" s="11">
+        <v>339307</v>
+      </c>
+      <c r="G40" s="11">
+        <v>339307</v>
+      </c>
+      <c r="H40" s="11">
+        <v>263987</v>
+      </c>
+      <c r="I40" s="11">
         <v>247001</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>288568</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>326131</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>54748</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>41200</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>34875</v>
+      </c>
+      <c r="E41" s="15">
+        <v>37807</v>
+      </c>
+      <c r="F41" s="15">
+        <v>39241</v>
+      </c>
+      <c r="G41" s="15">
+        <v>53314</v>
+      </c>
+      <c r="H41" s="15">
+        <v>55523</v>
+      </c>
+      <c r="I41" s="15">
         <v>52828</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>55977</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>90389</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>91047</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>94425</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>429754</v>
+      </c>
+      <c r="E42" s="19">
+        <v>494162</v>
+      </c>
+      <c r="F42" s="19">
+        <v>378548</v>
+      </c>
+      <c r="G42" s="19">
+        <v>392621</v>
+      </c>
+      <c r="H42" s="19">
+        <v>319510</v>
+      </c>
+      <c r="I42" s="19">
         <v>299829</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>344545</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>416520</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>145795</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>135625</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>1496262</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1561243</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1646030</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1632666</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1399266</v>
+      </c>
+      <c r="I43" s="17">
         <v>1813006</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>1844405</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>2688981</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>2255373</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>3218236</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,10 +2094,15 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1537,10 +2120,25 @@
       <c r="H45" s="15">
         <v>2200000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>2200000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2200000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>2200000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>2200000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2156,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,31 +2192,61 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-45358</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-45358</v>
+      </c>
+      <c r="H48" s="11">
+        <v>-28490</v>
+      </c>
+      <c r="I48" s="11">
         <v>-55521</v>
       </c>
-      <c r="E48" s="11">
+      <c r="J48" s="11">
         <v>-47621</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-14043</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-60192</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-103672</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1613,39 +2256,69 @@
         <v>0</v>
       </c>
       <c r="F49" s="15">
+        <v>7400</v>
+      </c>
+      <c r="G49" s="15">
+        <v>7400</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
         <v>2830</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>7659</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>8267</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>31290</v>
+      </c>
+      <c r="E50" s="11">
+        <v>31290</v>
+      </c>
+      <c r="F50" s="11">
+        <v>31290</v>
+      </c>
+      <c r="G50" s="11">
+        <v>31290</v>
+      </c>
+      <c r="H50" s="11">
         <v>67106</v>
       </c>
-      <c r="E50" s="11">
+      <c r="I50" s="11">
         <v>67106</v>
       </c>
-      <c r="F50" s="11">
+      <c r="J50" s="11">
         <v>67106</v>
       </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
+        <v>67106</v>
+      </c>
+      <c r="L50" s="11">
         <v>113273</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>113273</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2336,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2408,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2480,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>-503146</v>
+      </c>
+      <c r="E56" s="11">
+        <v>-491999</v>
+      </c>
+      <c r="F56" s="11">
+        <v>-528571</v>
+      </c>
+      <c r="G56" s="11">
+        <v>-343724</v>
+      </c>
+      <c r="H56" s="11">
+        <v>172208</v>
+      </c>
+      <c r="I56" s="11">
         <v>344754</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>483939</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>794096</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>895646</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>418832</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>1728144</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1739291</v>
+      </c>
+      <c r="F57" s="17">
+        <v>1664761</v>
+      </c>
+      <c r="G57" s="17">
+        <v>1849608</v>
+      </c>
+      <c r="H57" s="17">
+        <v>2410824</v>
+      </c>
+      <c r="I57" s="17">
         <v>2556339</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>2703424</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>3049989</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>3156386</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>2636700</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>3224406</v>
+      </c>
+      <c r="E58" s="19">
+        <v>3300534</v>
+      </c>
+      <c r="F58" s="19">
+        <v>3310791</v>
+      </c>
+      <c r="G58" s="19">
+        <v>3482274</v>
+      </c>
+      <c r="H58" s="19">
+        <v>3810090</v>
+      </c>
+      <c r="I58" s="19">
         <v>4369345</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>4547829</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>5738970</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>5411759</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>5854936</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2612,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekord/balancesheet/quarterly.xlsx
+++ b/database/industries/siman/sekord/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C52B5A-F3BE-4804-9C5A-F5D27930486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EDAF25-9A1F-4FEB-8D29-2492FD12DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل اول منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-16 (11)</t>
-  </si>
-  <si>
     <t>1399-10-29</t>
   </si>
   <si>
@@ -94,10 +91,13 @@
     <t>1401-04-29</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1402-02-11 (5)</t>
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-11 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,19 +732,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -758,7 +757,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +773,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -790,7 +789,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -804,7 +803,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +819,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -836,7 +835,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -850,7 +849,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -886,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -922,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -936,7 +935,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -952,43 +951,43 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>68732</v>
+        <v>171974</v>
       </c>
       <c r="E12" s="15">
-        <v>171974</v>
+        <v>232282</v>
       </c>
       <c r="F12" s="15">
-        <v>232282</v>
+        <v>90658</v>
       </c>
       <c r="G12" s="15">
-        <v>90658</v>
+        <v>107025</v>
       </c>
       <c r="H12" s="15">
-        <v>107025</v>
+        <v>247715</v>
       </c>
       <c r="I12" s="15">
-        <v>247715</v>
+        <v>318198</v>
       </c>
       <c r="J12" s="15">
-        <v>318198</v>
+        <v>1062097</v>
       </c>
       <c r="K12" s="15">
-        <v>1062097</v>
+        <v>599334</v>
       </c>
       <c r="L12" s="15">
-        <v>599334</v>
+        <v>256245</v>
       </c>
       <c r="M12" s="15">
-        <v>256245</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>401997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -997,19 +996,19 @@
         <v>104</v>
       </c>
       <c r="E13" s="11">
+        <v>400</v>
+      </c>
+      <c r="F13" s="11">
+        <v>255</v>
+      </c>
+      <c r="G13" s="11">
         <v>104</v>
       </c>
-      <c r="F13" s="11">
-        <v>400</v>
-      </c>
-      <c r="G13" s="11">
-        <v>255</v>
-      </c>
       <c r="H13" s="11">
+        <v>3056</v>
+      </c>
+      <c r="I13" s="11">
         <v>104</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3056</v>
       </c>
       <c r="J13" s="11">
         <v>104</v>
@@ -1024,115 +1023,115 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>188904</v>
+        <v>193973</v>
       </c>
       <c r="E14" s="15">
-        <v>193973</v>
+        <v>155055</v>
       </c>
       <c r="F14" s="15">
-        <v>155055</v>
+        <v>142176</v>
       </c>
       <c r="G14" s="15">
-        <v>142176</v>
+        <v>236957</v>
       </c>
       <c r="H14" s="15">
-        <v>236957</v>
+        <v>269384</v>
       </c>
       <c r="I14" s="15">
-        <v>269384</v>
+        <v>128772</v>
       </c>
       <c r="J14" s="15">
-        <v>128772</v>
+        <v>169038</v>
       </c>
       <c r="K14" s="15">
-        <v>169038</v>
+        <v>97021</v>
       </c>
       <c r="L14" s="15">
-        <v>97021</v>
+        <v>193776</v>
       </c>
       <c r="M14" s="15">
-        <v>193776</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>266003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>732965</v>
+        <v>879427</v>
       </c>
       <c r="E15" s="11">
-        <v>879427</v>
+        <v>892610</v>
       </c>
       <c r="F15" s="11">
-        <v>892610</v>
+        <v>992641</v>
       </c>
       <c r="G15" s="11">
-        <v>992641</v>
+        <v>1089787</v>
       </c>
       <c r="H15" s="11">
-        <v>1089787</v>
+        <v>1433925</v>
       </c>
       <c r="I15" s="11">
-        <v>1433925</v>
+        <v>1713739</v>
       </c>
       <c r="J15" s="11">
-        <v>1713739</v>
+        <v>1851596</v>
       </c>
       <c r="K15" s="11">
-        <v>1851596</v>
+        <v>1961718</v>
       </c>
       <c r="L15" s="11">
-        <v>1961718</v>
+        <v>2377493</v>
       </c>
       <c r="M15" s="11">
-        <v>2377493</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2381832</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>108628</v>
+        <v>55403</v>
       </c>
       <c r="E16" s="15">
-        <v>55403</v>
+        <v>60529</v>
       </c>
       <c r="F16" s="15">
-        <v>60529</v>
+        <v>298417</v>
       </c>
       <c r="G16" s="15">
-        <v>298417</v>
+        <v>235107</v>
       </c>
       <c r="H16" s="15">
-        <v>235107</v>
+        <v>420022</v>
       </c>
       <c r="I16" s="15">
-        <v>420022</v>
+        <v>415813</v>
       </c>
       <c r="J16" s="15">
-        <v>415813</v>
+        <v>608879</v>
       </c>
       <c r="K16" s="15">
-        <v>608879</v>
+        <v>187013</v>
       </c>
       <c r="L16" s="15">
-        <v>187013</v>
+        <v>800151</v>
       </c>
       <c r="M16" s="15">
-        <v>800151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>681753</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1168,43 +1167,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1099333</v>
+        <v>1300881</v>
       </c>
       <c r="E18" s="17">
-        <v>1300881</v>
+        <v>1340876</v>
       </c>
       <c r="F18" s="17">
-        <v>1340876</v>
+        <v>1524147</v>
       </c>
       <c r="G18" s="17">
-        <v>1524147</v>
+        <v>1668980</v>
       </c>
       <c r="H18" s="17">
-        <v>1668980</v>
+        <v>2374102</v>
       </c>
       <c r="I18" s="17">
-        <v>2374102</v>
+        <v>2576626</v>
       </c>
       <c r="J18" s="17">
-        <v>2576626</v>
+        <v>3691714</v>
       </c>
       <c r="K18" s="17">
-        <v>3691714</v>
+        <v>2845190</v>
       </c>
       <c r="L18" s="17">
-        <v>2845190</v>
+        <v>3627769</v>
       </c>
       <c r="M18" s="17">
-        <v>3627769</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3731689</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1258,25 +1257,25 @@
         <v>74449</v>
       </c>
       <c r="H20" s="15">
-        <v>74449</v>
+        <v>74604</v>
       </c>
       <c r="I20" s="15">
-        <v>74604</v>
+        <v>77556</v>
       </c>
       <c r="J20" s="15">
         <v>77556</v>
       </c>
       <c r="K20" s="15">
-        <v>77556</v>
+        <v>77555</v>
       </c>
       <c r="L20" s="15">
-        <v>77555</v>
+        <v>77658</v>
       </c>
       <c r="M20" s="15">
-        <v>77658</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>77579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1312,43 +1311,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1793076</v>
+        <v>1772659</v>
       </c>
       <c r="E22" s="15">
-        <v>1772659</v>
+        <v>1776442</v>
       </c>
       <c r="F22" s="15">
-        <v>1776442</v>
+        <v>1760625</v>
       </c>
       <c r="G22" s="15">
-        <v>1760625</v>
+        <v>1846344</v>
       </c>
       <c r="H22" s="15">
-        <v>1846344</v>
+        <v>1742158</v>
       </c>
       <c r="I22" s="15">
-        <v>1742158</v>
+        <v>1749726</v>
       </c>
       <c r="J22" s="15">
-        <v>1749726</v>
+        <v>1784844</v>
       </c>
       <c r="K22" s="15">
-        <v>1784844</v>
+        <v>2332212</v>
       </c>
       <c r="L22" s="15">
-        <v>2332212</v>
+        <v>2004285</v>
       </c>
       <c r="M22" s="15">
-        <v>2004285</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2329626</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1360,31 +1359,31 @@
         <v>81657</v>
       </c>
       <c r="F23" s="11">
-        <v>81657</v>
+        <v>86605</v>
       </c>
       <c r="G23" s="11">
         <v>86605</v>
       </c>
       <c r="H23" s="11">
-        <v>86605</v>
+        <v>87265</v>
       </c>
       <c r="I23" s="11">
-        <v>87265</v>
+        <v>88520</v>
       </c>
       <c r="J23" s="11">
-        <v>88520</v>
+        <v>96700</v>
       </c>
       <c r="K23" s="11">
-        <v>96700</v>
+        <v>88583</v>
       </c>
       <c r="L23" s="11">
-        <v>88583</v>
+        <v>77600</v>
       </c>
       <c r="M23" s="11">
-        <v>77600</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>83092</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1420,115 +1419,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>175891</v>
+        <v>70888</v>
       </c>
       <c r="E25" s="11">
-        <v>70888</v>
+        <v>37367</v>
       </c>
       <c r="F25" s="11">
-        <v>37367</v>
+        <v>36448</v>
       </c>
       <c r="G25" s="11">
-        <v>36448</v>
+        <v>133712</v>
       </c>
       <c r="H25" s="11">
-        <v>133712</v>
+        <v>91216</v>
       </c>
       <c r="I25" s="11">
-        <v>91216</v>
+        <v>55401</v>
       </c>
       <c r="J25" s="11">
-        <v>55401</v>
+        <v>88156</v>
       </c>
       <c r="K25" s="11">
-        <v>88156</v>
+        <v>68219</v>
       </c>
       <c r="L25" s="11">
+        <v>67624</v>
+      </c>
+      <c r="M25" s="11">
         <v>68219</v>
       </c>
-      <c r="M25" s="11">
-        <v>67624</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>2125073</v>
+        <v>1999653</v>
       </c>
       <c r="E26" s="17">
-        <v>1999653</v>
+        <v>1969915</v>
       </c>
       <c r="F26" s="17">
-        <v>1969915</v>
+        <v>1958127</v>
       </c>
       <c r="G26" s="17">
-        <v>1958127</v>
+        <v>2141110</v>
       </c>
       <c r="H26" s="17">
-        <v>2141110</v>
+        <v>1995243</v>
       </c>
       <c r="I26" s="17">
-        <v>1995243</v>
+        <v>1971203</v>
       </c>
       <c r="J26" s="17">
-        <v>1971203</v>
+        <v>2047256</v>
       </c>
       <c r="K26" s="17">
-        <v>2047256</v>
+        <v>2566569</v>
       </c>
       <c r="L26" s="17">
-        <v>2566569</v>
+        <v>2227167</v>
       </c>
       <c r="M26" s="17">
-        <v>2227167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2558516</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>3224406</v>
+        <v>3300534</v>
       </c>
       <c r="E27" s="19">
-        <v>3300534</v>
+        <v>3310791</v>
       </c>
       <c r="F27" s="19">
-        <v>3310791</v>
+        <v>3482274</v>
       </c>
       <c r="G27" s="19">
-        <v>3482274</v>
+        <v>3810090</v>
       </c>
       <c r="H27" s="19">
-        <v>3810090</v>
+        <v>4369345</v>
       </c>
       <c r="I27" s="19">
-        <v>4369345</v>
+        <v>4547829</v>
       </c>
       <c r="J27" s="19">
-        <v>4547829</v>
+        <v>5738970</v>
       </c>
       <c r="K27" s="19">
-        <v>5738970</v>
+        <v>5411759</v>
       </c>
       <c r="L27" s="19">
-        <v>5411759</v>
+        <v>5854936</v>
       </c>
       <c r="M27" s="19">
-        <v>5854936</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6290205</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1544,43 +1543,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>599871</v>
+        <v>636167</v>
       </c>
       <c r="E29" s="15">
-        <v>636167</v>
+        <v>534705</v>
       </c>
       <c r="F29" s="15">
-        <v>534705</v>
+        <v>667167</v>
       </c>
       <c r="G29" s="15">
-        <v>667167</v>
+        <v>777400</v>
       </c>
       <c r="H29" s="15">
-        <v>777400</v>
+        <v>911200</v>
       </c>
       <c r="I29" s="15">
-        <v>911200</v>
+        <v>783481</v>
       </c>
       <c r="J29" s="15">
-        <v>783481</v>
+        <v>924590</v>
       </c>
       <c r="K29" s="15">
-        <v>924590</v>
+        <v>883031</v>
       </c>
       <c r="L29" s="15">
-        <v>883031</v>
+        <v>1142943</v>
       </c>
       <c r="M29" s="15">
-        <v>1142943</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>746221</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1616,43 +1615,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>76797</v>
+        <v>134406</v>
       </c>
       <c r="E31" s="15">
-        <v>134406</v>
+        <v>228755</v>
       </c>
       <c r="F31" s="15">
-        <v>228755</v>
+        <v>261201</v>
       </c>
       <c r="G31" s="15">
-        <v>261201</v>
+        <v>121206</v>
       </c>
       <c r="H31" s="15">
-        <v>121206</v>
+        <v>228489</v>
       </c>
       <c r="I31" s="15">
-        <v>228489</v>
+        <v>442349</v>
       </c>
       <c r="J31" s="15">
-        <v>442349</v>
+        <v>928996</v>
       </c>
       <c r="K31" s="15">
-        <v>928996</v>
+        <v>609295</v>
       </c>
       <c r="L31" s="15">
-        <v>609295</v>
+        <v>435231</v>
       </c>
       <c r="M31" s="15">
-        <v>435231</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>755509</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1670,25 +1669,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>0</v>
+        <v>50050</v>
       </c>
       <c r="I32" s="11">
-        <v>50050</v>
+        <v>65803</v>
       </c>
       <c r="J32" s="11">
-        <v>65803</v>
+        <v>127549</v>
       </c>
       <c r="K32" s="11">
-        <v>127549</v>
+        <v>166381</v>
       </c>
       <c r="L32" s="11">
-        <v>166381</v>
+        <v>231071</v>
       </c>
       <c r="M32" s="11">
-        <v>231071</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>142547</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1706,61 +1705,61 @@
         <v>3515</v>
       </c>
       <c r="H33" s="15">
-        <v>3515</v>
+        <v>157233</v>
       </c>
       <c r="I33" s="15">
-        <v>157233</v>
+        <v>141823</v>
       </c>
       <c r="J33" s="15">
-        <v>141823</v>
+        <v>71875</v>
       </c>
       <c r="K33" s="15">
-        <v>71875</v>
+        <v>3776</v>
       </c>
       <c r="L33" s="15">
-        <v>3776</v>
+        <v>795777</v>
       </c>
       <c r="M33" s="15">
-        <v>795777</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>789151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>386325</v>
+        <v>292993</v>
       </c>
       <c r="E34" s="11">
-        <v>292993</v>
+        <v>500507</v>
       </c>
       <c r="F34" s="11">
-        <v>500507</v>
+        <v>308162</v>
       </c>
       <c r="G34" s="11">
-        <v>308162</v>
+        <v>177635</v>
       </c>
       <c r="H34" s="11">
-        <v>177635</v>
+        <v>166205</v>
       </c>
       <c r="I34" s="11">
-        <v>166205</v>
+        <v>66404</v>
       </c>
       <c r="J34" s="11">
-        <v>66404</v>
+        <v>219451</v>
       </c>
       <c r="K34" s="11">
-        <v>219451</v>
+        <v>447095</v>
       </c>
       <c r="L34" s="11">
-        <v>447095</v>
+        <v>477589</v>
       </c>
       <c r="M34" s="11">
-        <v>477589</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>773679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1832,43 +1831,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>1066508</v>
+        <v>1067081</v>
       </c>
       <c r="E37" s="17">
-        <v>1067081</v>
+        <v>1267482</v>
       </c>
       <c r="F37" s="17">
-        <v>1267482</v>
+        <v>1240045</v>
       </c>
       <c r="G37" s="17">
-        <v>1240045</v>
+        <v>1079756</v>
       </c>
       <c r="H37" s="17">
-        <v>1079756</v>
+        <v>1513177</v>
       </c>
       <c r="I37" s="17">
-        <v>1513177</v>
+        <v>1499860</v>
       </c>
       <c r="J37" s="17">
-        <v>1499860</v>
+        <v>2272461</v>
       </c>
       <c r="K37" s="17">
-        <v>2272461</v>
+        <v>2109578</v>
       </c>
       <c r="L37" s="17">
-        <v>2109578</v>
+        <v>3082611</v>
       </c>
       <c r="M37" s="17">
-        <v>3082611</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3207107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1940,151 +1939,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>394879</v>
+        <v>456355</v>
       </c>
       <c r="E40" s="11">
-        <v>456355</v>
+        <v>339307</v>
       </c>
       <c r="F40" s="11">
         <v>339307</v>
       </c>
       <c r="G40" s="11">
-        <v>339307</v>
+        <v>263987</v>
       </c>
       <c r="H40" s="11">
-        <v>263987</v>
+        <v>247001</v>
       </c>
       <c r="I40" s="11">
-        <v>247001</v>
+        <v>288568</v>
       </c>
       <c r="J40" s="11">
-        <v>288568</v>
+        <v>326131</v>
       </c>
       <c r="K40" s="11">
-        <v>326131</v>
+        <v>54748</v>
       </c>
       <c r="L40" s="11">
-        <v>54748</v>
+        <v>41200</v>
       </c>
       <c r="M40" s="11">
         <v>41200</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>34875</v>
+        <v>37807</v>
       </c>
       <c r="E41" s="15">
-        <v>37807</v>
+        <v>39241</v>
       </c>
       <c r="F41" s="15">
-        <v>39241</v>
+        <v>53314</v>
       </c>
       <c r="G41" s="15">
-        <v>53314</v>
+        <v>55523</v>
       </c>
       <c r="H41" s="15">
-        <v>55523</v>
+        <v>52828</v>
       </c>
       <c r="I41" s="15">
-        <v>52828</v>
+        <v>55977</v>
       </c>
       <c r="J41" s="15">
-        <v>55977</v>
+        <v>90389</v>
       </c>
       <c r="K41" s="15">
-        <v>90389</v>
+        <v>91047</v>
       </c>
       <c r="L41" s="15">
-        <v>91047</v>
+        <v>94425</v>
       </c>
       <c r="M41" s="15">
-        <v>94425</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>97927</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>429754</v>
+        <v>494162</v>
       </c>
       <c r="E42" s="19">
-        <v>494162</v>
+        <v>378548</v>
       </c>
       <c r="F42" s="19">
-        <v>378548</v>
+        <v>392621</v>
       </c>
       <c r="G42" s="19">
-        <v>392621</v>
+        <v>319510</v>
       </c>
       <c r="H42" s="19">
-        <v>319510</v>
+        <v>299829</v>
       </c>
       <c r="I42" s="19">
-        <v>299829</v>
+        <v>344545</v>
       </c>
       <c r="J42" s="19">
-        <v>344545</v>
+        <v>416520</v>
       </c>
       <c r="K42" s="19">
-        <v>416520</v>
+        <v>145795</v>
       </c>
       <c r="L42" s="19">
-        <v>145795</v>
+        <v>135625</v>
       </c>
       <c r="M42" s="19">
-        <v>135625</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>139127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>1496262</v>
+        <v>1561243</v>
       </c>
       <c r="E43" s="17">
-        <v>1561243</v>
+        <v>1646030</v>
       </c>
       <c r="F43" s="17">
-        <v>1646030</v>
+        <v>1632666</v>
       </c>
       <c r="G43" s="17">
-        <v>1632666</v>
+        <v>1399266</v>
       </c>
       <c r="H43" s="17">
-        <v>1399266</v>
+        <v>1813006</v>
       </c>
       <c r="I43" s="17">
-        <v>1813006</v>
+        <v>1844405</v>
       </c>
       <c r="J43" s="17">
-        <v>1844405</v>
+        <v>2688981</v>
       </c>
       <c r="K43" s="17">
-        <v>2688981</v>
+        <v>2255373</v>
       </c>
       <c r="L43" s="17">
-        <v>2255373</v>
+        <v>3218236</v>
       </c>
       <c r="M43" s="17">
-        <v>3218236</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3346234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2100,7 +2099,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2217,34 +2216,34 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-45358</v>
       </c>
       <c r="F48" s="11">
         <v>-45358</v>
       </c>
       <c r="G48" s="11">
-        <v>-45358</v>
+        <v>-28490</v>
       </c>
       <c r="H48" s="11">
-        <v>-28490</v>
+        <v>-55521</v>
       </c>
       <c r="I48" s="11">
-        <v>-55521</v>
+        <v>-47621</v>
       </c>
       <c r="J48" s="11">
-        <v>-47621</v>
+        <v>-14043</v>
       </c>
       <c r="K48" s="11">
-        <v>-14043</v>
+        <v>-60192</v>
       </c>
       <c r="L48" s="11">
-        <v>-60192</v>
+        <v>-103672</v>
       </c>
       <c r="M48" s="11">
-        <v>-103672</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-90436</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2253,13 +2252,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="F49" s="15">
         <v>7400</v>
       </c>
       <c r="G49" s="15">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="15">
         <v>0</v>
@@ -2268,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="J49" s="15">
-        <v>0</v>
+        <v>2830</v>
       </c>
       <c r="K49" s="15">
-        <v>2830</v>
+        <v>7659</v>
       </c>
       <c r="L49" s="15">
-        <v>7659</v>
+        <v>8267</v>
       </c>
       <c r="M49" s="15">
-        <v>8267</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>31290</v>
       </c>
       <c r="G50" s="11">
-        <v>31290</v>
+        <v>67106</v>
       </c>
       <c r="H50" s="11">
         <v>67106</v>
@@ -2307,7 +2306,7 @@
         <v>67106</v>
       </c>
       <c r="K50" s="11">
-        <v>67106</v>
+        <v>113273</v>
       </c>
       <c r="L50" s="11">
         <v>113273</v>
@@ -2316,7 +2315,7 @@
         <v>113273</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2496,115 +2495,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>-503146</v>
+        <v>-491999</v>
       </c>
       <c r="E56" s="11">
-        <v>-491999</v>
+        <v>-528571</v>
       </c>
       <c r="F56" s="11">
-        <v>-528571</v>
+        <v>-343724</v>
       </c>
       <c r="G56" s="11">
-        <v>-343724</v>
+        <v>172208</v>
       </c>
       <c r="H56" s="11">
-        <v>172208</v>
+        <v>344754</v>
       </c>
       <c r="I56" s="11">
-        <v>344754</v>
+        <v>483939</v>
       </c>
       <c r="J56" s="11">
-        <v>483939</v>
+        <v>794096</v>
       </c>
       <c r="K56" s="11">
-        <v>794096</v>
+        <v>895646</v>
       </c>
       <c r="L56" s="11">
-        <v>895646</v>
+        <v>418832</v>
       </c>
       <c r="M56" s="11">
-        <v>418832</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>711784</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1728144</v>
+        <v>1739291</v>
       </c>
       <c r="E57" s="17">
-        <v>1739291</v>
+        <v>1664761</v>
       </c>
       <c r="F57" s="17">
-        <v>1664761</v>
+        <v>1849608</v>
       </c>
       <c r="G57" s="17">
-        <v>1849608</v>
+        <v>2410824</v>
       </c>
       <c r="H57" s="17">
-        <v>2410824</v>
+        <v>2556339</v>
       </c>
       <c r="I57" s="17">
-        <v>2556339</v>
+        <v>2703424</v>
       </c>
       <c r="J57" s="17">
-        <v>2703424</v>
+        <v>3049989</v>
       </c>
       <c r="K57" s="17">
-        <v>3049989</v>
+        <v>3156386</v>
       </c>
       <c r="L57" s="17">
-        <v>3156386</v>
+        <v>2636700</v>
       </c>
       <c r="M57" s="17">
-        <v>2636700</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2943971</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>3224406</v>
+        <v>3300534</v>
       </c>
       <c r="E58" s="19">
-        <v>3300534</v>
+        <v>3310791</v>
       </c>
       <c r="F58" s="19">
-        <v>3310791</v>
+        <v>3482274</v>
       </c>
       <c r="G58" s="19">
-        <v>3482274</v>
+        <v>3810090</v>
       </c>
       <c r="H58" s="19">
-        <v>3810090</v>
+        <v>4369345</v>
       </c>
       <c r="I58" s="19">
-        <v>4369345</v>
+        <v>4547829</v>
       </c>
       <c r="J58" s="19">
-        <v>4547829</v>
+        <v>5738970</v>
       </c>
       <c r="K58" s="19">
-        <v>5738970</v>
+        <v>5411759</v>
       </c>
       <c r="L58" s="19">
-        <v>5411759</v>
+        <v>5854936</v>
       </c>
       <c r="M58" s="19">
-        <v>5854936</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6290205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
